--- a/src/main/resources/1.xlsx
+++ b/src/main/resources/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevSpaces\CloudSpace\crawler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09315D20-D32C-4B9D-9BB5-B50B44A7F9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE254A-5F10-44FB-8FCD-F09CE9167434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>一级</t>
   </si>
@@ -246,27 +246,79 @@
     <t>Business Cooperation</t>
   </si>
   <si>
-    <t>需要订单状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>preparing,shipped</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Return</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>shipped,delivered,cancel,rejection</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>订单状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpaid,expired</t>
+  </si>
+  <si>
+    <t>unpaid,expired,preparing,shipped,delivered,cancel,rejection</t>
+  </si>
+  <si>
+    <t>preparing,shipped</t>
+  </si>
+  <si>
+    <t>preparing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparing,shipped</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipped</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipped,rejection,delivered</t>
+  </si>
+  <si>
+    <t>delivered</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>unpaid,expired,preparing,shipped,delivered,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,rejection</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipped,delivered</t>
+  </si>
+  <si>
+    <t>preparing,shipped,delivered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +363,27 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -367,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,6 +484,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,7 +840,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>11</v>
@@ -994,7 +1073,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="B30" sqref="B29:B30"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1082,7 @@
     <col min="2" max="2" width="36.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="35.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29" style="4" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1019,8 +1098,8 @@
       <c r="D1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>69</v>
+      <c r="E1" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1032,7 +1111,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -1043,7 +1122,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -1054,7 +1133,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -1065,7 +1144,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -1076,7 +1155,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -1087,7 +1166,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -1098,7 +1177,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1113,7 +1192,9 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -1128,7 +1209,9 @@
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="19" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
@@ -1141,7 +1224,7 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
@@ -1154,8 +1237,8 @@
         <v>1</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="9" t="s">
-        <v>70</v>
+      <c r="E12" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,8 +1252,8 @@
         <v>1</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="9" t="s">
-        <v>70</v>
+      <c r="E13" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,8 +1267,8 @@
         <v>1</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="9" t="s">
-        <v>70</v>
+      <c r="E14" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1199,8 +1282,8 @@
         <v>1</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="9" t="s">
-        <v>70</v>
+      <c r="E15" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1214,8 +1297,8 @@
         <v>1</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="9" t="s">
-        <v>70</v>
+      <c r="E16" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1229,8 +1312,8 @@
         <v>1</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="9" t="s">
-        <v>70</v>
+      <c r="E17" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1244,8 +1327,8 @@
         <v>1</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="9" t="s">
-        <v>70</v>
+      <c r="E18" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1259,8 +1342,8 @@
         <v>1</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="9" t="s">
-        <v>70</v>
+      <c r="E19" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1276,8 +1359,8 @@
       <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>72</v>
+      <c r="E20" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1293,8 +1376,8 @@
       <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>72</v>
+      <c r="E21" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1310,8 +1393,8 @@
       <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>72</v>
+      <c r="E22" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1327,8 +1410,8 @@
       <c r="D23" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>72</v>
+      <c r="E23" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1344,8 +1427,8 @@
       <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>72</v>
+      <c r="E24" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1361,8 +1444,8 @@
       <c r="D25" s="7">
         <v>1</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>72</v>
+      <c r="E25" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,8 +1461,8 @@
       <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>72</v>
+      <c r="E26" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,8 +1478,8 @@
       <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>72</v>
+      <c r="E27" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1410,8 +1493,8 @@
         <v>1</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="9" t="s">
-        <v>72</v>
+      <c r="E28" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1427,8 +1510,8 @@
       <c r="D29" s="7">
         <v>1</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>72</v>
+      <c r="E29" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1442,8 +1525,8 @@
         <v>1</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="9" t="s">
-        <v>72</v>
+      <c r="E30" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1457,8 +1540,8 @@
         <v>1</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="9" t="s">
-        <v>72</v>
+      <c r="E31" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1472,7 +1555,7 @@
       <c r="D32" s="7">
         <v>1</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -1485,7 +1568,7 @@
       <c r="D33" s="7">
         <v>1</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -1496,7 +1579,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -1509,7 +1592,7 @@
       <c r="D35" s="7">
         <v>1</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
@@ -1520,11 +1603,11 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>